--- a/src/datasets/pglib_opf_case3_lmbd.xlsx
+++ b/src/datasets/pglib_opf_case3_lmbd.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton Hinneck\Google Drive\Research\IEEE Datasets Julia\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton Hinneck\.julia\packages\PowerGrids\src\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD02B3C0-CCBA-4A6A-8488-00D715B32DF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77307283-09B8-49B9-8735-0757F8AA46A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="5" r:id="rId1"/>
     <sheet name="gen" sheetId="2" r:id="rId2"/>
     <sheet name="gencost" sheetId="3" r:id="rId3"/>
     <sheet name="branch" sheetId="4" r:id="rId4"/>
+    <sheet name="global" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>bus_i</t>
   </si>
@@ -154,6 +155,27 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>baseVA</t>
+  </si>
+  <si>
+    <t>bibtex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @INPROCEEDINGS{lesieutre_molzahn_borden_demarco-allerton2011,
+author={Lesieutre, B.C. and Molzahn, D.K. and Borden, A.R. and DeMarco, C.L.},
+booktitle={49th Annual Allerton Conference on Communication, Control, and Computing (Allerton)}, 
+title={{Examining the Limits of the Application of Semidefinite Programming to Power Flow Problems}},
+year={2011},
+month={September},
+volume={},
+number={},
+pages={1492-1499},
+keywords={Equations;Generators;Load flow;Power system stability;Programming;Reactive power;convex programming;load flow;nonlinear equations;SDP algorithm;convex relaxation;nonconvex power flow problem problem;nonlinear power flow equations;power system problems;semidefinite programming;},
+doi={10.1109/Allerton.2011.6120344},
+ISSN={}
+}</t>
   </si>
 </sst>
 </file>
@@ -189,10 +211,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1676,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246CB805-AE00-4D8D-A30A-BE76B7FAC5EB}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
@@ -1852,4 +1880,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C09686-2640-4474-87E7-2BA6DEB2F02C}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="99.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/datasets/pglib_opf_case3_lmbd.xlsx
+++ b/src/datasets/pglib_opf_case3_lmbd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton Hinneck\.julia\packages\PowerGrids\src\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77307283-09B8-49B9-8735-0757F8AA46A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E88AD0D-AC51-4955-8682-10338BF659FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{DFD34208-E987-4523-B597-80539962FC82}"/>
   </bookViews>
   <sheets>
     <sheet name="bus" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>bus_i</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>baseVA</t>
   </si>
   <si>
     <t>bibtex</t>
@@ -176,6 +173,12 @@
 doi={10.1109/Allerton.2011.6120344},
 ISSN={}
 }</t>
+  </si>
+  <si>
+    <t>baseMVA</t>
+  </si>
+  <si>
+    <t>objective</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1887,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C09686-2640-4474-87E7-2BA6DEB2F02C}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1892,25 +1895,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="99.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="99.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>100</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
+      <c r="B2" s="2">
+        <v>5812.64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
